--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H2">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I2">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J2">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N2">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O2">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P2">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q2">
-        <v>3.785632402070555</v>
+        <v>21.77120116997222</v>
       </c>
       <c r="R2">
-        <v>34.070691618635</v>
+        <v>195.94081052975</v>
       </c>
       <c r="S2">
-        <v>0.0007921825237918923</v>
+        <v>0.003327279843048191</v>
       </c>
       <c r="T2">
-        <v>0.0007921825237918925</v>
+        <v>0.003327279843048191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H3">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I3">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J3">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.172156</v>
       </c>
       <c r="O3">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P3">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q3">
-        <v>1.389946130917778</v>
+        <v>2.230214604297778</v>
       </c>
       <c r="R3">
-        <v>12.50951517826</v>
+        <v>20.07193143868</v>
       </c>
       <c r="S3">
-        <v>0.0002908605265854599</v>
+        <v>0.000340842383505529</v>
       </c>
       <c r="T3">
-        <v>0.00029086052658546</v>
+        <v>0.000340842383505529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H4">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I4">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J4">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N4">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O4">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P4">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q4">
-        <v>914.7192163776716</v>
+        <v>1515.94977252037</v>
       </c>
       <c r="R4">
-        <v>8232.472947399045</v>
+        <v>13643.54795268333</v>
       </c>
       <c r="S4">
-        <v>0.1914144059509507</v>
+        <v>0.2316817102465345</v>
       </c>
       <c r="T4">
-        <v>0.1914144059509508</v>
+        <v>0.2316817102465345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H5">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I5">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J5">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N5">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O5">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P5">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q5">
-        <v>6.175021140856666</v>
+        <v>0.3803992985466667</v>
       </c>
       <c r="R5">
-        <v>55.57519026770999</v>
+        <v>3.42359368692</v>
       </c>
       <c r="S5">
-        <v>0.001292186697566457</v>
+        <v>5.813620059281323E-05</v>
       </c>
       <c r="T5">
-        <v>0.001292186697566457</v>
+        <v>5.813620059281321E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H6">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I6">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J6">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N6">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O6">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P6">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q6">
-        <v>1358.417389796391</v>
+        <v>2788.636084993856</v>
       </c>
       <c r="R6">
-        <v>12225.75650816752</v>
+        <v>25097.7247649447</v>
       </c>
       <c r="S6">
-        <v>0.2842628131625031</v>
+        <v>0.4261856092714941</v>
       </c>
       <c r="T6">
-        <v>0.2842628131625031</v>
+        <v>0.4261856092714941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.22127833333333</v>
+        <v>38.86384333333334</v>
       </c>
       <c r="H7">
-        <v>72.66383499999999</v>
+        <v>116.59153</v>
       </c>
       <c r="I7">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="J7">
-        <v>0.5991940284370921</v>
+        <v>0.6764363039174565</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N7">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O7">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P7">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q7">
-        <v>578.9038196457761</v>
+        <v>97.11956562008555</v>
       </c>
       <c r="R7">
-        <v>5210.134376811985</v>
+        <v>874.07609058077</v>
       </c>
       <c r="S7">
-        <v>0.1211415795756944</v>
+        <v>0.01484272597228125</v>
       </c>
       <c r="T7">
-        <v>0.1211415795756944</v>
+        <v>0.01484272597228125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3.963676</v>
       </c>
       <c r="I8">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J8">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N8">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O8">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P8">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q8">
-        <v>0.2064991518395555</v>
+        <v>0.7401394215222221</v>
       </c>
       <c r="R8">
-        <v>1.858492366556</v>
+        <v>6.661254793699999</v>
       </c>
       <c r="S8">
-        <v>4.321207182601018E-05</v>
+        <v>0.0001131150715594339</v>
       </c>
       <c r="T8">
-        <v>4.32120718260102E-05</v>
+        <v>0.0001131150715594338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.963676</v>
       </c>
       <c r="I9">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J9">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.172156</v>
       </c>
       <c r="O9">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P9">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q9">
         <v>0.07581895616177778</v>
       </c>
       <c r="R9">
-        <v>0.682370605456</v>
+        <v>0.6823706054559999</v>
       </c>
       <c r="S9">
-        <v>1.58658965436403E-05</v>
+        <v>1.158736638316404E-05</v>
       </c>
       <c r="T9">
-        <v>1.586589654364031E-05</v>
+        <v>1.158736638316403E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3.963676</v>
       </c>
       <c r="I10">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J10">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N10">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O10">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P10">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q10">
-        <v>49.89621872689467</v>
+        <v>51.536623033804</v>
       </c>
       <c r="R10">
-        <v>449.0659685420521</v>
+        <v>463.8296073042359</v>
       </c>
       <c r="S10">
-        <v>0.01044129706231498</v>
+        <v>0.007876311723014038</v>
       </c>
       <c r="T10">
-        <v>0.01044129706231499</v>
+        <v>0.007876311723014036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>3.963676</v>
       </c>
       <c r="I11">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J11">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N11">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O11">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P11">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q11">
-        <v>0.3368358289306667</v>
+        <v>0.01293215356266667</v>
       </c>
       <c r="R11">
-        <v>3.031522460376</v>
+        <v>0.116389382064</v>
       </c>
       <c r="S11">
-        <v>7.048636231026649E-05</v>
+        <v>1.976413406882297E-06</v>
       </c>
       <c r="T11">
-        <v>7.048636231026652E-05</v>
+        <v>1.976413406882297E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3.963676</v>
       </c>
       <c r="I12">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J12">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N12">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O12">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P12">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q12">
-        <v>74.09912243027912</v>
+        <v>94.80319816391555</v>
       </c>
       <c r="R12">
-        <v>666.8921018725121</v>
+        <v>853.2287834752399</v>
       </c>
       <c r="S12">
-        <v>0.01550600364300477</v>
+        <v>0.01448871689920184</v>
       </c>
       <c r="T12">
-        <v>0.01550600364300478</v>
+        <v>0.01448871689920184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.963676</v>
       </c>
       <c r="I13">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="J13">
-        <v>0.03268491113714848</v>
+        <v>0.02299630464894258</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N13">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O13">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P13">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q13">
-        <v>31.57811827903511</v>
+        <v>3.301702030831555</v>
       </c>
       <c r="R13">
-        <v>284.203064511316</v>
+        <v>29.71531827748399</v>
       </c>
       <c r="S13">
-        <v>0.006608046101148806</v>
+        <v>0.0005045971753772153</v>
       </c>
       <c r="T13">
-        <v>0.006608046101148808</v>
+        <v>0.0005045971753772153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H14">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I14">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J14">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N14">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O14">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P14">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q14">
-        <v>0.8845950624311112</v>
+        <v>4.6495325734</v>
       </c>
       <c r="R14">
-        <v>7.961355561880001</v>
+        <v>41.8457931606</v>
       </c>
       <c r="S14">
-        <v>0.0001851106168436329</v>
+        <v>0.0007105853227982249</v>
       </c>
       <c r="T14">
-        <v>0.0001851106168436329</v>
+        <v>0.0007105853227982248</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H15">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I15">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J15">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.172156</v>
       </c>
       <c r="O15">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P15">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q15">
-        <v>0.3247910398755556</v>
+        <v>0.4762922985920001</v>
       </c>
       <c r="R15">
-        <v>2.923119358880001</v>
+        <v>4.286630687328</v>
       </c>
       <c r="S15">
-        <v>6.796586629300926E-05</v>
+        <v>7.27914712712323E-05</v>
       </c>
       <c r="T15">
-        <v>6.796586629300927E-05</v>
+        <v>7.279147127123229E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H16">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I16">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J16">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N16">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O16">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P16">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q16">
-        <v>213.7439709877734</v>
+        <v>323.751445404552</v>
       </c>
       <c r="R16">
-        <v>1923.69573888996</v>
+        <v>2913.763008640968</v>
       </c>
       <c r="S16">
-        <v>0.04472812476187157</v>
+        <v>0.04947874258486112</v>
       </c>
       <c r="T16">
-        <v>0.04472812476187158</v>
+        <v>0.04947874258486111</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H17">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I17">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J17">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N17">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O17">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P17">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q17">
-        <v>1.442927530053334</v>
+        <v>0.08123938204800001</v>
       </c>
       <c r="R17">
-        <v>12.98634777048</v>
+        <v>0.731154438432</v>
       </c>
       <c r="S17">
-        <v>0.0003019474293862375</v>
+        <v>1.2415766876603E-05</v>
       </c>
       <c r="T17">
-        <v>0.0003019474293862375</v>
+        <v>1.241576687660299E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H18">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I18">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J18">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N18">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O18">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P18">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q18">
-        <v>317.4236661428623</v>
+        <v>595.55070991768</v>
       </c>
       <c r="R18">
-        <v>2856.812995285761</v>
+        <v>5359.95638925912</v>
       </c>
       <c r="S18">
-        <v>0.06642416754959959</v>
+        <v>0.09101766398425436</v>
       </c>
       <c r="T18">
-        <v>0.06642416754959961</v>
+        <v>0.09101766398425436</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.659826666666667</v>
+        <v>8.299896</v>
       </c>
       <c r="H19">
-        <v>16.97948</v>
+        <v>24.899688</v>
       </c>
       <c r="I19">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="J19">
-        <v>0.140014671974952</v>
+        <v>0.1444620627194604</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N19">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O19">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P19">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q19">
-        <v>135.2734249107422</v>
+        <v>20.741188340488</v>
       </c>
       <c r="R19">
-        <v>1217.46082419668</v>
+        <v>186.670695064392</v>
       </c>
       <c r="S19">
-        <v>0.02830735575095799</v>
+        <v>0.003169863589398817</v>
       </c>
       <c r="T19">
-        <v>0.028307355750958</v>
+        <v>0.003169863589398817</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H20">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I20">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J20">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N20">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O20">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P20">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q20">
-        <v>0.1624160021773333</v>
+        <v>0.4440165046055555</v>
       </c>
       <c r="R20">
-        <v>1.461744019596</v>
+        <v>3.99614854145</v>
       </c>
       <c r="S20">
-        <v>3.398721926583706E-05</v>
+        <v>6.785878069935929E-05</v>
       </c>
       <c r="T20">
-        <v>3.398721926583707E-05</v>
+        <v>6.785878069935926E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H21">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I21">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J21">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.172156</v>
       </c>
       <c r="O21">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P21">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q21">
-        <v>0.05963323161066667</v>
+        <v>0.04548449510844445</v>
       </c>
       <c r="R21">
-        <v>0.536699084496</v>
+        <v>0.409360455976</v>
       </c>
       <c r="S21">
-        <v>1.247886717510295E-05</v>
+        <v>6.951368579253468E-06</v>
       </c>
       <c r="T21">
-        <v>1.247886717510295E-05</v>
+        <v>6.951368579253467E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H22">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I22">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J22">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N22">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O22">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P22">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q22">
-        <v>39.244443849748</v>
+        <v>30.917298218734</v>
       </c>
       <c r="R22">
-        <v>353.1999946477321</v>
+        <v>278.255683968606</v>
       </c>
       <c r="S22">
-        <v>0.008212303592049391</v>
+        <v>0.00472507246437954</v>
       </c>
       <c r="T22">
-        <v>0.008212303592049393</v>
+        <v>0.004725072464379539</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H23">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I23">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J23">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N23">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O23">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P23">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q23">
-        <v>0.264928588024</v>
+        <v>0.007758118882666667</v>
       </c>
       <c r="R23">
-        <v>2.384357292216</v>
+        <v>0.069823069944</v>
       </c>
       <c r="S23">
-        <v>5.543903242445971E-05</v>
+        <v>1.185668736269423E-06</v>
       </c>
       <c r="T23">
-        <v>5.543903242445973E-05</v>
+        <v>1.185668736269423E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H24">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I24">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J24">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N24">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O24">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P24">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q24">
-        <v>58.28054557495467</v>
+        <v>56.87331798594889</v>
       </c>
       <c r="R24">
-        <v>524.5249101745922</v>
+        <v>511.85986187354</v>
       </c>
       <c r="S24">
-        <v>0.01219580370674235</v>
+        <v>0.00869191566714825</v>
       </c>
       <c r="T24">
-        <v>0.01219580370674235</v>
+        <v>0.00869191566714825</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.039172</v>
+        <v>0.7926153333333333</v>
       </c>
       <c r="H25">
-        <v>3.117516</v>
+        <v>2.377846</v>
       </c>
       <c r="I25">
-        <v>0.02570738209395485</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="J25">
-        <v>0.02570738209395486</v>
+        <v>0.01379569647576379</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N25">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O25">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P25">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q25">
-        <v>24.83686582475067</v>
+        <v>1.980721675334889</v>
       </c>
       <c r="R25">
-        <v>223.531792422756</v>
+        <v>17.826495078014</v>
       </c>
       <c r="S25">
-        <v>0.005197369676297716</v>
+        <v>0.0003027125262211165</v>
       </c>
       <c r="T25">
-        <v>0.005197369676297717</v>
+        <v>0.0003027125262211164</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.718923666666667</v>
+        <v>5.230638</v>
       </c>
       <c r="H26">
-        <v>11.156771</v>
+        <v>15.691914</v>
       </c>
       <c r="I26">
-        <v>0.09199996889567039</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J26">
-        <v>0.09199996889567039</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N26">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O26">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P26">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q26">
-        <v>0.5812442159167778</v>
+        <v>2.93015981895</v>
       </c>
       <c r="R26">
-        <v>5.231197943251</v>
+        <v>26.37143837055</v>
       </c>
       <c r="S26">
-        <v>0.0001216313315715885</v>
+        <v>0.0004478145981191404</v>
       </c>
       <c r="T26">
-        <v>0.0001216313315715885</v>
+        <v>0.0004478145981191404</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.718923666666667</v>
+        <v>5.230638</v>
       </c>
       <c r="H27">
-        <v>11.156771</v>
+        <v>15.691914</v>
       </c>
       <c r="I27">
-        <v>0.09199996889567039</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J27">
-        <v>0.09199996889567039</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.172156</v>
       </c>
       <c r="O27">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P27">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q27">
-        <v>0.2134116742528889</v>
+        <v>0.300161905176</v>
       </c>
       <c r="R27">
-        <v>1.920705068276</v>
+        <v>2.701457146584</v>
       </c>
       <c r="S27">
-        <v>4.465858825168515E-05</v>
+        <v>4.587356705520357E-05</v>
       </c>
       <c r="T27">
-        <v>4.465858825168516E-05</v>
+        <v>4.587356705520357E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.718923666666667</v>
+        <v>5.230638</v>
       </c>
       <c r="H28">
-        <v>11.156771</v>
+        <v>15.691914</v>
       </c>
       <c r="I28">
-        <v>0.09199996889567039</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J28">
-        <v>0.09199996889567039</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N28">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O28">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P28">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q28">
-        <v>140.4455576343463</v>
+        <v>204.029859276306</v>
       </c>
       <c r="R28">
-        <v>1264.010018709117</v>
+        <v>1836.268733486754</v>
       </c>
       <c r="S28">
-        <v>0.02938967773027387</v>
+        <v>0.03118176313975413</v>
       </c>
       <c r="T28">
-        <v>0.02938967773027388</v>
+        <v>0.03118176313975413</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.718923666666667</v>
+        <v>5.230638</v>
       </c>
       <c r="H29">
-        <v>11.156771</v>
+        <v>15.691914</v>
       </c>
       <c r="I29">
-        <v>0.09199996889567039</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J29">
-        <v>0.09199996889567039</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N29">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O29">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P29">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q29">
-        <v>0.9481098374273333</v>
+        <v>0.05119748474399999</v>
       </c>
       <c r="R29">
-        <v>8.532988536846</v>
+        <v>0.4607773626960001</v>
       </c>
       <c r="S29">
-        <v>0.00019840173690248</v>
+        <v>7.824481418068482E-06</v>
       </c>
       <c r="T29">
-        <v>0.00019840173690248</v>
+        <v>7.824481418068482E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.718923666666667</v>
+        <v>5.230638</v>
       </c>
       <c r="H30">
-        <v>11.156771</v>
+        <v>15.691914</v>
       </c>
       <c r="I30">
-        <v>0.09199996889567039</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J30">
-        <v>0.09199996889567039</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N30">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O30">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P30">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q30">
-        <v>208.5707661916836</v>
+        <v>375.31918161654</v>
       </c>
       <c r="R30">
-        <v>1877.136895725152</v>
+        <v>3377.87263454886</v>
       </c>
       <c r="S30">
-        <v>0.04364557844035941</v>
+        <v>0.05735980931655917</v>
       </c>
       <c r="T30">
-        <v>0.04364557844035941</v>
+        <v>0.05735980931655917</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.718923666666667</v>
+        <v>5.230638</v>
       </c>
       <c r="H31">
-        <v>11.156771</v>
+        <v>15.691914</v>
       </c>
       <c r="I31">
-        <v>0.09199996889567039</v>
+        <v>0.09104074976587569</v>
       </c>
       <c r="J31">
-        <v>0.09199996889567039</v>
+        <v>0.0910407497658757</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N31">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O31">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P31">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q31">
-        <v>88.88461979488456</v>
+        <v>13.071205699314</v>
       </c>
       <c r="R31">
-        <v>799.961578153961</v>
+        <v>117.640851293826</v>
       </c>
       <c r="S31">
-        <v>0.01860002106831135</v>
+        <v>0.001997664662969975</v>
       </c>
       <c r="T31">
-        <v>0.01860002106831136</v>
+        <v>0.001997664662969976</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.462671</v>
+        <v>2.945592666666666</v>
       </c>
       <c r="H32">
-        <v>13.388013</v>
+        <v>8.836777999999999</v>
       </c>
       <c r="I32">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="J32">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M32">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N32">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O32">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P32">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q32">
-        <v>0.6974872137170001</v>
+        <v>1.650096465261111</v>
       </c>
       <c r="R32">
-        <v>6.277384923453</v>
+        <v>14.85086818735</v>
       </c>
       <c r="S32">
-        <v>0.0001459563746793527</v>
+        <v>0.0002521832702331954</v>
       </c>
       <c r="T32">
-        <v>0.0001459563746793528</v>
+        <v>0.0002521832702331953</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.462671</v>
+        <v>2.945592666666666</v>
       </c>
       <c r="H33">
-        <v>13.388013</v>
+        <v>8.836777999999999</v>
       </c>
       <c r="I33">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="J33">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.172156</v>
       </c>
       <c r="O33">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P33">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q33">
-        <v>0.256091862892</v>
+        <v>0.1690338170408889</v>
       </c>
       <c r="R33">
-        <v>2.304826766028</v>
+        <v>1.521304353368</v>
       </c>
       <c r="S33">
-        <v>5.358985678519422E-05</v>
+        <v>2.583333863128155E-05</v>
       </c>
       <c r="T33">
-        <v>5.358985678519424E-05</v>
+        <v>2.583333863128154E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.462671</v>
+        <v>2.945592666666666</v>
       </c>
       <c r="H34">
-        <v>13.388013</v>
+        <v>8.836777999999999</v>
       </c>
       <c r="I34">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="J34">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N34">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O34">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P34">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q34">
-        <v>168.533256746139</v>
+        <v>114.897811178162</v>
       </c>
       <c r="R34">
-        <v>1516.799310715251</v>
+        <v>1034.080300603458</v>
       </c>
       <c r="S34">
-        <v>0.03526731771394404</v>
+        <v>0.0175597647625771</v>
       </c>
       <c r="T34">
-        <v>0.03526731771394404</v>
+        <v>0.01755976476257709</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.462671</v>
+        <v>2.945592666666666</v>
       </c>
       <c r="H35">
-        <v>13.388013</v>
+        <v>8.836777999999999</v>
       </c>
       <c r="I35">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="J35">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M35">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N35">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O35">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P35">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q35">
-        <v>1.137722270082</v>
+        <v>0.02883146102133333</v>
       </c>
       <c r="R35">
-        <v>10.239500430738</v>
+        <v>0.259483149192</v>
       </c>
       <c r="S35">
-        <v>0.0002380800890215441</v>
+        <v>4.406295194875295E-06</v>
       </c>
       <c r="T35">
-        <v>0.0002380800890215442</v>
+        <v>4.406295194875294E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.462671</v>
+        <v>2.945592666666666</v>
       </c>
       <c r="H36">
-        <v>13.388013</v>
+        <v>8.836777999999999</v>
       </c>
       <c r="I36">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="J36">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N36">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O36">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P36">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q36">
-        <v>250.2828219019841</v>
+        <v>211.3580463853577</v>
       </c>
       <c r="R36">
-        <v>2252.545397117857</v>
+        <v>1902.22241746822</v>
       </c>
       <c r="S36">
-        <v>0.05237425519911195</v>
+        <v>0.03230172565646008</v>
       </c>
       <c r="T36">
-        <v>0.05237425519911196</v>
+        <v>0.03230172565646008</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.462671</v>
+        <v>2.945592666666666</v>
       </c>
       <c r="H37">
-        <v>13.388013</v>
+        <v>8.836777999999999</v>
       </c>
       <c r="I37">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="J37">
-        <v>0.1103990374611822</v>
+        <v>0.05126888247250115</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N37">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O37">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P37">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q37">
-        <v>106.660649870287</v>
+        <v>7.360946724355776</v>
       </c>
       <c r="R37">
-        <v>959.9458488325831</v>
+        <v>66.24852051920199</v>
       </c>
       <c r="S37">
-        <v>0.02231983822764009</v>
+        <v>0.001124969149404623</v>
       </c>
       <c r="T37">
-        <v>0.02231983822764009</v>
+        <v>0.001124969149404623</v>
       </c>
     </row>
   </sheetData>
